--- a/lang/moviewer-language.xlsx
+++ b/lang/moviewer-language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\GitHub\Moviewer\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6BC338-70DC-47E7-BA33-5687EFDE8F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059967BC-9401-4068-AAA4-7E903EC70763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="common-language" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'common-language'!$A$1:$D$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'common-language'!$A$1:$D$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>name</t>
   </si>
@@ -61,19 +61,11 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>NONE</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>DEL</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>TEMP</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>NEW</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -114,6 +106,45 @@
   </si>
   <si>
     <t>URL or ID</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ﾏｲﾘｽﾄ検索</t>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>NEW</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ﾜｰﾄﾞ検索</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ﾕｰｻﾞ検索</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ﾀｸﾞ検索</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Moviewer_Nico_Core_NicoSearchType_User</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Moviewer_Nico_Core_NicoSearchType_Tag</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Moviewer_Nico_Core_NicoSearchType_Word</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Moviewer_Nico_Core_NicoSearchType_Mylist</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1079,11 +1110,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1110,26 +1141,26 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -1137,7 +1168,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -1145,23 +1176,20 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -1169,17 +1197,49 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D6" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D6">
-      <sortCondition ref="A1:A6"/>
+  <autoFilter ref="A1:D2" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D2">
+      <sortCondition ref="A1:A2"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D9">
-    <sortCondition ref="A2:A9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C13">
+    <sortCondition ref="A2:A13"/>
   </sortState>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lang/moviewer-language.xlsx
+++ b/lang/moviewer-language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\GitHub\Moviewer\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059967BC-9401-4068-AAA4-7E903EC70763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1ADE215-FADD-4348-A561-A6459AFCA494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>name</t>
   </si>
@@ -145,6 +145,40 @@
   </si>
   <si>
     <t>Moviewer_Nico_Core_NicoSearchType_Mylist</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>L_AddFavorite</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>お気に入り追加</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>お気に入り削除</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>L_DelFavorite</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1110,11 +1144,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1149,86 +1183,102 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1238,8 +1288,8 @@
       <sortCondition ref="A1:A2"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C13">
-    <sortCondition ref="A2:A13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C15">
+    <sortCondition ref="A2:A15"/>
   </sortState>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lang/moviewer-language.xlsx
+++ b/lang/moviewer-language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\GitHub\Moviewer\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1ADE215-FADD-4348-A561-A6459AFCA494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29675861-E227-4914-BB45-D481BD6457CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>name</t>
   </si>
@@ -179,6 +179,66 @@
   </si>
   <si>
     <t>L_DelFavorite</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Moviewer_Core_MenuType_NicoSearch</t>
+  </si>
+  <si>
+    <t>Moviewer_Core_MenuType_NicoRanking</t>
+  </si>
+  <si>
+    <t>Moviewer_Core_MenuType_NicoTemporary</t>
+  </si>
+  <si>
+    <t>Moviewer_Core_MenuType_NicoHistory</t>
+  </si>
+  <si>
+    <t>Moviewer_Core_MenuType_NicoFavorite</t>
+  </si>
+  <si>
+    <t>Moviewer_Core_MenuType_NicoChromium</t>
+  </si>
+  <si>
+    <t>Moviewer_Core_MenuType_TubeSearch</t>
+  </si>
+  <si>
+    <t>Moviewer_Core_MenuType_TubeRanking</t>
+  </si>
+  <si>
+    <t>Moviewer_Core_MenuType_TubeTemporary</t>
+  </si>
+  <si>
+    <t>Moviewer_Core_MenuType_TubeHistory</t>
+  </si>
+  <si>
+    <t>Moviewer_Core_MenuType_TubeFavorite</t>
+  </si>
+  <si>
+    <t>Moviewer_Core_MenuType_TubeChromium</t>
+  </si>
+  <si>
+    <t>Search</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Ranking</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Temp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>History</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Favorite</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Chromium</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1144,11 +1204,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1175,18 +1235,18 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -1215,70 +1275,166 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1288,8 +1444,8 @@
       <sortCondition ref="A1:A2"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C15">
-    <sortCondition ref="A2:A15"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C27">
+    <sortCondition ref="A2:A27"/>
   </sortState>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lang/moviewer-language.xlsx
+++ b/lang/moviewer-language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\GitHub\Moviewer\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29675861-E227-4914-BB45-D481BD6457CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E737C643-E392-4129-9A61-8EEA76F78F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>name</t>
   </si>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>MH_AddTemporary</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>L_AddTemporary</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -239,6 +235,66 @@
   </si>
   <si>
     <t>Chromium</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>M_AddTemporary</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>M_CompleteDownload</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>{0}のﾀﾞｳﾝﾛｰﾄﾞが完了しました。</t>
+    <rPh sb="13" eb="15">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>H_CompleteDownload</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ﾀﾞｳﾝﾛｰﾄﾞ完了通知</t>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>H_FailedDownload</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ﾀﾞｳﾝﾛｰﾄﾞ失敗通知</t>
+    <rPh sb="8" eb="10">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>M_FailedDownload</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>何らかの原因で{0}のﾀﾞｳﾝﾛｰﾄﾞが失敗しました。</t>
+    <rPh sb="0" eb="1">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シッパイ</t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1204,11 +1260,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1235,119 +1291,119 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>44</v>
@@ -1355,87 +1411,119 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1444,8 +1532,8 @@
       <sortCondition ref="A1:A2"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C27">
-    <sortCondition ref="A2:A27"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D31">
+    <sortCondition ref="A2:A31"/>
   </sortState>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lang/moviewer-language.xlsx
+++ b/lang/moviewer-language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\GitHub\Moviewer\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E737C643-E392-4129-9A61-8EEA76F78F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E959FA-4598-4DBA-8B99-BEB6C8E8A3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/lang/moviewer-language.xlsx
+++ b/lang/moviewer-language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\GitHub\Moviewer\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E959FA-4598-4DBA-8B99-BEB6C8E8A3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FCE60E-6F75-44A0-87CE-DC1E909A6945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -294,6 +294,36 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>H_InputAPIKEY</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>M_InputAPIKEY</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>L_APIKEY</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>APIｷｰ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Youtube APIｷｰ入力</t>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Youtube APIｷｰを入力してください。</t>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -1260,11 +1290,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" sqref="A1:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1307,222 +1337,246 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1532,8 +1586,8 @@
       <sortCondition ref="A1:A2"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D31">
-    <sortCondition ref="A2:A31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D34">
+    <sortCondition ref="A2:A34"/>
   </sortState>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lang/moviewer-language.xlsx
+++ b/lang/moviewer-language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\GitHub\Moviewer\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FCE60E-6F75-44A0-87CE-DC1E909A6945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A0E865-6DEC-4729-8EDC-C4BF65E7CF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -324,6 +324,17 @@
     <t>Youtube APIｷｰを入力してください。</t>
     <rPh sb="14" eb="16">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Moviewer_Core_MenuType_TubePopular</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>急上昇</t>
+    <rPh sb="0" eb="3">
+      <t>キュウジョウショウ</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -1290,11 +1301,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C34"/>
+      <selection pane="bottomLeft" sqref="A1:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1489,94 +1500,102 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1586,8 +1605,8 @@
       <sortCondition ref="A1:A2"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D34">
-    <sortCondition ref="A2:A34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D35">
+    <sortCondition ref="A2:A35"/>
   </sortState>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lang/moviewer-language.xlsx
+++ b/lang/moviewer-language.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\GitHub\Moviewer\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A0E865-6DEC-4729-8EDC-C4BF65E7CF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805C6C3C-3AC9-4AF0-82A1-B33729C3BD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
   <si>
     <t>name</t>
   </si>
@@ -336,6 +336,38 @@
     <rPh sb="0" eb="3">
       <t>キュウジョウショウ</t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Moviewer_Core_Controls_CounterType_View</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Moviewer_Core_Controls_CounterType_Like</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Mylist</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Like</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Moviewer_Core_Controls_CounterType_Mylist</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Moviewer_Core_Controls_CounterType_Comment</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1301,11 +1333,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C35"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1597,6 +1629,38 @@
       </c>
       <c r="B35" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/lang/moviewer-language.xlsx
+++ b/lang/moviewer-language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\GitHub\Moviewer\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805C6C3C-3AC9-4AF0-82A1-B33729C3BD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE399E7-9989-4319-AA1D-D0DC61F44BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
   <si>
     <t>name</t>
   </si>
@@ -368,6 +368,14 @@
   </si>
   <si>
     <t>Moviewer_Core_Controls_CounterType_Comment</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Moviewer_Core_MenuType_TubeHome</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ﾎｰﾑ</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1333,11 +1341,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomLeft" sqref="A1:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1532,134 +1540,142 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1669,8 +1685,8 @@
       <sortCondition ref="A1:A2"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D35">
-    <sortCondition ref="A2:A35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D36">
+    <sortCondition ref="A2:A36"/>
   </sortState>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
